--- a/IDENTIFICATION_liste_des_etapes.xlsx
+++ b/IDENTIFICATION_liste_des_etapes.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARILOU\Desktop\ARD automatisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARILOU\Desktop\ARD automatisation\sur GITHUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C471F4A-85F9-45FB-8B7D-EAA9CE8087E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBF2ECC-CAB4-483B-9955-06C75276A823}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{23E58E33-AA0A-4BCE-BF1E-1D15526EED6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{23E58E33-AA0A-4BCE-BF1E-1D15526EED6A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Début</t>
   </si>
@@ -116,24 +115,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -178,11 +165,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -192,7 +176,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,111 +490,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595F9CDF-515F-4DAA-90A7-D89B007F1E89}">
-  <dimension ref="B3:B20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7595AB-D722-47B5-ABD1-A3AEEAD4D1A2}">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -620,17 +499,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -640,163 +519,163 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <f>A6+1</f>
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <f t="shared" ref="A8:A23" si="0">A7+1</f>
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
     </row>
